--- a/biology/Botanique/Escallonia/Escallonia.xlsx
+++ b/biology/Botanique/Escallonia/Escallonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Escallonia est un genre de 147 espèces d'arbustes ou de petits arbres appartenant à la famille des Escalloniaceae ou des Grossulariaceae selon la classification classique de Cronquist (1981)[1]. Ils sont originaires d'Amérique du Sud
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Escallonia est un genre de 147 espèces d'arbustes ou de petits arbres appartenant à la famille des Escalloniaceae ou des Grossulariaceae selon la classification classique de Cronquist (1981). Ils sont originaires d'Amérique du Sud
 Les escallonias sont couramment utilisés pour faire des haies persistantes de 1 à 2 m de haut. Ils préfèrent les zones côtières mais ne tolèrent pas les vents secs. Ils fleurissent de juin à octobre, donnant une grande masse de fleurs dégageant une odeur agréable de miel.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Escallonia fut donné en mémoire de José Antonio Escallón y Flórez  (1739-1819),  administrateur, médecin et botaniste espagnol qui étudia la flore  de Colombie (ex-Nouvelle-Grenade), où il découvrit la plante[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Escallonia fut donné en mémoire de José Antonio Escallón y Flórez  (1739-1819),  administrateur, médecin et botaniste espagnol qui étudia la flore  de Colombie (ex-Nouvelle-Grenade), où il découvrit la plante,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces actuellement valides à Escallonia sont[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces actuellement valides à Escallonia sont :
 Escallonia alpina
 Escallonia angustifolia
 Escallonia bifida
